--- a/RollPass.xlsx
+++ b/RollPass.xlsx
@@ -556,16 +556,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-17</v>
+        <v>2026-01-18</v>
       </c>
       <c r="B2" t="str">
         <v>D</v>
       </c>
       <c r="C2" t="str">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>2026-01-17-D-269</v>
+        <v>2026-01-18-D-000</v>
       </c>
       <c r="E2" t="str">
         <v>Meta</v>
@@ -814,7 +814,7 @@
         <v/>
       </c>
       <c r="H5">
-        <v>24661</v>
+        <v>25662</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -1189,7 +1189,7 @@
         <v/>
       </c>
       <c r="I8">
-        <v>23351</v>
+        <v>24352</v>
       </c>
       <c r="J8" t="str">
         <v/>
@@ -1558,7 +1558,7 @@
         <v/>
       </c>
       <c r="H11">
-        <v>2524</v>
+        <v>3525</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>13499</v>
+        <v>14500</v>
       </c>
       <c r="H14">
         <v>26789</v>
@@ -2302,7 +2302,7 @@
         <v/>
       </c>
       <c r="H17">
-        <v>13499</v>
+        <v>14500</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -2674,7 +2674,7 @@
         <v/>
       </c>
       <c r="H20">
-        <v>13499</v>
+        <v>14500</v>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -3046,7 +3046,7 @@
         <v>11162</v>
       </c>
       <c r="H23">
-        <v>13499</v>
+        <v>14500</v>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -3418,7 +3418,7 @@
         <v/>
       </c>
       <c r="H26">
-        <v>13499</v>
+        <v>14500</v>
       </c>
       <c r="I26" t="str">
         <v/>
@@ -3799,7 +3799,7 @@
         <v>5404</v>
       </c>
       <c r="K29">
-        <v>2524</v>
+        <v>3525</v>
       </c>
       <c r="L29" t="str">
         <v/>
@@ -4174,7 +4174,7 @@
         <v/>
       </c>
       <c r="L32">
-        <v>2524</v>
+        <v>3525</v>
       </c>
       <c r="M32" t="str">
         <v/>
@@ -4537,7 +4537,7 @@
         <v/>
       </c>
       <c r="I35">
-        <v>2524</v>
+        <v>3525</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -4912,7 +4912,7 @@
         <v/>
       </c>
       <c r="J38">
-        <v>2524</v>
+        <v>3525</v>
       </c>
       <c r="K38" t="str">
         <v/>
@@ -5287,7 +5287,7 @@
         <v>3862</v>
       </c>
       <c r="K41">
-        <v>892</v>
+        <v>1893</v>
       </c>
       <c r="L41">
         <v>1632</v>
@@ -5507,10 +5507,10 @@
         <v>NEW</v>
       </c>
       <c r="K43" t="str">
-        <v>NEW</v>
+        <v>ACTIVE</v>
       </c>
       <c r="L43" t="str">
-        <v>ACTIVE</v>
+        <v>USED</v>
       </c>
       <c r="M43" t="str">
         <v>USED</v>
@@ -5658,11 +5658,11 @@
       <c r="J44" t="str">
         <v/>
       </c>
-      <c r="K44" t="str">
-        <v/>
+      <c r="K44">
+        <v>414</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="M44" t="str">
         <v/>
